--- a/samples/tensorflow-label-image/PerfResult.xlsx
+++ b/samples/tensorflow-label-image/PerfResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/feliu_microsoft_com1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FEB4A5-3C2F-4A4C-A80F-D172945968F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{89FEB4A5-3C2F-4A4C-A80F-D172945968F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1A7454-CC82-4CBB-86B0-B4B4C09503CD}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="3780" windowWidth="18345" windowHeight="15345" xr2:uid="{38F97E3A-D81E-4C24-B43C-4C28E0BCC9DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Graphene-real-time (sec)</t>
   </si>
@@ -52,13 +52,22 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>Improve%</t>
-  </si>
-  <si>
     <t>End-to-end time</t>
   </si>
   <si>
     <t>Processing time</t>
+  </si>
+  <si>
+    <t>Native-real-time(sec)</t>
+  </si>
+  <si>
+    <t>Native-processing-time (ms)</t>
+  </si>
+  <si>
+    <t>Slowdown (enclave time / native time)</t>
+  </si>
+  <si>
+    <t>Improve% Mystikos compared to Graphene</t>
   </si>
 </sst>
 </file>
@@ -102,13 +111,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,252 +434,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B15F2-412A-49C4-A569-FB17B888E1A9}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.316</v>
+      </c>
+      <c r="C3">
         <v>5.3540000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.4290000000000003</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>293.67899999999997</v>
+      </c>
+      <c r="F3">
         <v>484.887</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>364.08</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.317</v>
+      </c>
+      <c r="C4">
         <v>5.3890000000000002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5.1929999999999996</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>293.82600000000002</v>
+      </c>
+      <c r="F4">
         <v>485.35199999999998</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>331.089</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.315</v>
+      </c>
+      <c r="C5">
         <v>5.3250000000000002</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.375</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>292.221</v>
+      </c>
+      <c r="F5">
         <v>482.92399999999998</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>331.59199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.316</v>
+      </c>
+      <c r="C6">
         <v>5.3109999999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.29</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>293.87900000000002</v>
+      </c>
+      <c r="F6">
         <v>483.084</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>329.96100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.316</v>
+      </c>
+      <c r="C7">
         <v>5.335</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.2539999999999996</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>293.08199999999999</v>
+      </c>
+      <c r="F7">
         <v>482.233</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>331.64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.312</v>
+      </c>
+      <c r="C8">
         <v>5.3369999999999997</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5.202</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>289.91000000000003</v>
+      </c>
+      <c r="F8">
         <v>488.17099999999999</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>327.00700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.316</v>
+      </c>
+      <c r="C9">
         <v>5.3109999999999999</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.2649999999999997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>293.42200000000003</v>
+      </c>
+      <c r="F9">
         <v>486.61099999999999</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>332.27300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.316</v>
+      </c>
+      <c r="C10">
         <v>5.39</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5.3289999999999997</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>292.94799999999998</v>
+      </c>
+      <c r="F10">
         <v>486.41399999999999</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>334.51900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.315</v>
+      </c>
+      <c r="C11">
         <v>5.3369999999999997</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>5.306</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>292.17599999999999</v>
+      </c>
+      <c r="F11">
         <v>486.09500000000003</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>329.46300000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>0.314</v>
+      </c>
+      <c r="C12">
         <v>5.327</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5.2949999999999999</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>291.03699999999998</v>
+      </c>
+      <c r="F12">
         <v>485.72300000000001</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>332.42099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
-        <v>5.3415999999999997</v>
+        <v>0.31530000000000002</v>
       </c>
       <c r="C13">
         <f>AVERAGE(C3:C12)</f>
-        <v>5.2937999999999992</v>
+        <v>5.3415999999999997</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D3:D12)</f>
-        <v>485.14939999999996</v>
+        <v>5.2937999999999992</v>
       </c>
       <c r="E13">
         <f>AVERAGE(E3:E12)</f>
+        <v>292.61799999999999</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F3:F12)</f>
+        <v>485.14939999999996</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(G3:G12)</f>
         <v>334.40449999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <f>(C13-B13)/B13</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C13/B13</f>
+        <v>16.941325721535044</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D13/B13</f>
+        <v>16.78972407231208</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F13/E13</f>
+        <v>1.6579615744759377</v>
+      </c>
+      <c r="G14" s="4">
+        <f>G13/E12</f>
+        <v>1.1490102632998553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <f>(D13-C13)/C13</f>
         <v>-8.9486296240827677E-3</v>
       </c>
-      <c r="E14" s="2">
-        <f>(E13-D13)/D13</f>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2">
+        <f>(G13-F13)/F13</f>
         <v>-0.31071851268908091</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
